--- a/VersionRecords/Version 5.2.0.5_beta 20161206/版本Bug和特性计划及评审表v5.2.0.5.xlsx
+++ b/VersionRecords/Version 5.2.0.5_beta 20161206/版本Bug和特性计划及评审表v5.2.0.5.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
   <si>
     <t>No</t>
   </si>
@@ -251,6 +251,41 @@
   <si>
     <t>执行结果及报错补救方案</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>集中式房源录入改版</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1316,7 +1351,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1411,23 +1446,53 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="39">
+        <v>42709</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="39">
+        <v>42709</v>
+      </c>
       <c r="K2" s="38"/>
-      <c r="L2" s="47"/>
+      <c r="L2" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="47"/>
+      <c r="N2" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="39">
+        <v>42710</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>77</v>
+      </c>
       <c r="R2" s="44"/>
       <c r="S2" s="44"/>
       <c r="T2" s="52"/>
@@ -5216,7 +5281,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M1:M1048576">
